--- a/pred_ohlcv/54_21/2020-01-19 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 MIX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-186352.549889898</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-185852.549889898</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-191349.828589898</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-182249.828589898</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-185070.8461898979</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-236630.407089898</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-105320.4663898979</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-120044.6642898979</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -990,7 +990,7 @@
         <v>42531.02471010207</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>42531.02471010207</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>42701.02471010207</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>26715.44781010206</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>26715.44781010206</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>11729.06221010207</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>66574.02381010207</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-62946.74758989793</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>68193.19311010207</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>85352.12901010207</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>108116.9438101021</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>513915.2178105957</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>506886.4055105957</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>440114.7529105957</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>415161.3032105957</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>413161.3032105957</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>417273.7174105957</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>407380.4196105957</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>395375.5636105958</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>395375.5636105958</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>395375.5636105958</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>395375.5636105958</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>391875.5636105958</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>391875.5636105958</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>372867.7076105957</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>372867.7076105957</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>372867.7076105957</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>374342.5636105958</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>374342.5636105958</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>163778.4460105958</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>163778.4460105958</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>164983.4460105958</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>159884.8860105958</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>159884.8860105958</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>73491.38601059577</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>75999.24201059577</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>70677.39201059577</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>168102.9503105958</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>168102.9503105958</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>168102.9503105958</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>183102.9503105958</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>189803.0835105958</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1845314.547810102</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>5640893.318613328</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>4676031.054113582</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>4678335.054113582</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>4671427.198113582</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>4671345.768113582</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>4671345.768113582</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>4483542.719813582</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>4485231.250713582</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>4483123.394713582</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>4478623.394713582</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>4462504.243613582</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>3833434.300013582</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>4310614.807413582</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>4312922.663413581</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>4309634.807113581</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>4311942.767113581</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>4215992.293613582</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>4215992.293613582</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>4246327.168813582</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>4249605.857338171</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>4211106.950838172</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>1990421.343838171</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>2010632.343838171</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>398076.4216675003</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>327235.4425675003</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>327735.4425675003</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-120005.9366324997</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-118801.0806324997</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1072088.8427325</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-922622.6954324995</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-897539.1354324995</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1354343.261832499</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1356882.238832499</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1392265.440232499</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-2746282.732232499</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-2733587.486232499</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-2731584.590232499</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-2731584.590232499</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-2731084.590232499</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-2742159.446232499</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-2747257.833332499</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 MIX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-186352.549889898</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-185852.549889898</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-186279.828589898</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-191349.828589898</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-191349.828589898</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-182249.828589898</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-185070.8461898979</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-236630.407089898</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-105320.4663898979</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-120044.6642898979</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -990,7 +990,7 @@
         <v>42531.02471010207</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>42531.02471010207</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>42701.02471010207</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>26715.44781010206</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>26715.44781010206</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>11729.06221010207</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>66574.02381010207</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-62946.74758989793</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>68193.19311010207</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>85352.12901010207</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>108116.9438101021</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>171474.1452101021</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>395684.5671101021</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>231084.3707101021</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>130611.8911101021</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>124570.0391101021</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>125651.0391101021</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>125651.0391101021</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>187570.1456105957</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>123575.4947105957</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>95893.6387105957</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>107233.6387105957</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>489277.5542105957</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>489277.5542105957</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>513666.4102105957</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>510660.5146105957</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>492163.2437105957</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>523706.7874105957</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>521706.7874105957</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>517117.3460105957</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>513915.2178105957</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>506886.4055105957</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>440114.7529105957</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>415161.3032105957</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>413161.3032105957</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>417273.7174105957</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>407380.4196105957</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>395375.5636105958</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>395375.5636105958</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>395375.5636105958</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>395375.5636105958</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>391875.5636105958</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>391875.5636105958</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>372867.7076105957</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>372867.7076105957</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>372867.7076105957</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>374342.5636105958</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>374342.5636105958</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>163778.4460105958</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>163778.4460105958</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>164983.4460105958</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>159884.8860105958</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>159884.8860105958</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>73491.38601059577</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>75999.24201059577</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>70677.39201059577</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>168102.9503105958</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>168102.9503105958</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>168102.9503105958</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>183102.9503105958</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>189803.0835105958</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>189803.0835105958</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>489012.9554105958</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>516208.8282105958</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>516208.8282105958</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>915048.6453101023</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1845314.547810102</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>2262442.627910102</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>5607596.905913328</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>4676031.054113582</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>4678335.054113582</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>4671427.198113582</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>4671345.768113582</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>4671345.768113582</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>4483542.719813582</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>4485231.250713582</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>4483123.394713582</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>4478623.394713582</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>4462504.243613582</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>4310614.807413582</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>4312922.663413581</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>4309634.807113581</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>4311942.767113581</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>4215992.293613582</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>4215992.293613582</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>4246327.168813582</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>4249605.857338171</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>4211106.950838172</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>1990421.343838171</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>2010632.343838171</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>398076.4216675003</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>327235.4425675003</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>327735.4425675003</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-120005.9366324997</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-118801.0806324997</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1072088.8427325</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-922622.6954324995</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-897539.1354324995</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1354343.261832499</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1356882.238832499</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1392265.440232499</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-2746282.732232499</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-2733587.486232499</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-2731584.590232499</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-2731584.590232499</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-2731084.590232499</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-2742159.446232499</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-2747257.833332499</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-2747257.833332499</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-2730992.278832499</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-2728989.315832499</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-2734339.004532499</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-2734339.004532499</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-2734339.004532499</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-2725329.148532499</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-2729331.004532499</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-2729331.004532499</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-2687731.004532499</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
